--- a/小组绩效/第5周小组绩效.xlsx
+++ b/小组绩效/第5周小组绩效.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\绩效\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Endless\软件需求分析原理与实践\SRA2023-G20\小组绩效\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389D3B1-85E3-40BD-9927-CD80C918C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA73760-4D5E-46B2-9E3B-119F009B78E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -214,6 +205,12 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,12 +227,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -521,235 +512,210 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="8" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
+    <col min="3" max="8" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7">
-        <f ca="1">ROUND(RAND()*4+90,0)</f>
-        <v>92</v>
-      </c>
-      <c r="D5" s="7">
-        <f ca="1">ROUND(RAND()*4+90,0)</f>
-        <v>91</v>
-      </c>
-      <c r="E5" s="7">
-        <f ca="1">ROUND(RAND()*4+90,0)</f>
-        <v>92</v>
-      </c>
-      <c r="F5" s="7">
-        <f ca="1">ROUND(RAND()*4+90,0)</f>
-        <v>94</v>
-      </c>
-      <c r="G5" s="7">
-        <f ca="1">ROUND(RAND()*4+90,0)</f>
-        <v>91</v>
-      </c>
-      <c r="H5" s="7">
-        <f ca="1">C5*0.4+D5*0.15+E5*0.15+F5*0.15+G5*0.15</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>82</v>
+      </c>
+      <c r="G5" s="1">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1">
+        <f>C5*0.4+D5*0.15+E5*0.15+F5*0.15+G5*0.15</f>
+        <v>81.349999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:G9" ca="1" si="0">ROUND(RAND()*4+90,0)</f>
-        <v>92</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" ref="H6:H9" ca="1" si="1">C6*0.4+D6*0.15+E6*0.15+F6*0.15+G6*0.15</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="1">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1">
+        <v>82</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H9" si="0">C6*0.4+D6*0.15+E6*0.15+F6*0.15+G6*0.15</f>
+        <v>81.449999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>92.850000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="1">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1">
+        <v>81</v>
+      </c>
+      <c r="G7" s="1">
+        <v>82</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>82.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="1">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1">
+        <v>81</v>
+      </c>
+      <c r="G8" s="1">
+        <v>82</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>81.149999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>91.149999999999991</v>
+      <c r="C9" s="1">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1">
+        <v>82</v>
+      </c>
+      <c r="G9" s="1">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>81.499999999999986</v>
       </c>
     </row>
   </sheetData>
